--- a/data_Generic/data_ProjectTemplate/GridNodes_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/GridNodes_ProjectTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37A7586-D5DD-4A7E-B0F9-AF2F9D68C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB889D-2041-4F2C-A25F-DF09BC321324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{A7529885-FB18-401C-977B-A3275EF3AD02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A7529885-FB18-401C-977B-A3275EF3AD02}"/>
   </bookViews>
   <sheets>
     <sheet name="gridnodes" sheetId="2" r:id="rId1"/>
@@ -336,9 +336,6 @@
     <t>fid</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>gridnode_id</t>
+  </si>
+  <si>
+    <t>T0</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -884,39 +884,39 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>0</v>
